--- a/biology/Botanique/Carl_Ludwig_Blume/Carl_Ludwig_Blume.xlsx
+++ b/biology/Botanique/Carl_Ludwig_Blume/Carl_Ludwig_Blume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Ludwig Blume (ou Karel Lodewijk Blume), né le 9 juin 1796 à Brunswick et mort le 3 février 1862, est un botaniste germano-hollandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'origine allemande, Blume passa l'essentiel de sa vie aux Pays-Bas. Après avoir dirigé le Jardin botanique de Buitenzorg de 1822 à 1826, il dirige du jardin botanique national de Leyde (le Rijksherbarium).
 Il étudie particulièrement la flore du sud-est asiatique et en particulier de Java dont il reçoit de nombreux spécimens de la colonie hollandaise qui y est installée. En 1844, il fait paraître le premier catalogue du Jardin botanique de Buitenzorg où il décrit 914 espèces.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bijdragen tot de flora van Nederlandsch Indië (1825-1827) Texte sur Botanicus
 Flora Javae necnon insularum adjacentium (1828-1829)
